--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0436123049819568</v>
+        <v>0.0427825289134036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.019083653967749</v>
+        <v>0.0254219008151137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0681409559961647</v>
+        <v>0.0601431570116935</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117863948803187</v>
+        <v>0.124100230900714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0747223635945315</v>
+        <v>0.0935049379838842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.161005534011842</v>
+        <v>0.154695523817544</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0134176715913387</v>
+        <v>-0.0157457424318671</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0498814524988075</v>
+        <v>-0.0416081557518602</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02304610931613</v>
+        <v>0.010116670888126</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0398780069249653</v>
+        <v>0.0325071121053562</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0109401021704237</v>
+        <v>-0.00293841770571488</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0906961160203544</v>
+        <v>0.0679526419164273</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -490,13 +490,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0531128486474015</v>
+        <v>0.0465731370810223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.017971696962778</v>
+        <v>0.0217576360884495</v>
       </c>
       <c r="D6" t="n">
-        <v>0.088254000332025</v>
+        <v>0.0713886380735951</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.109270576535018</v>
+        <v>0.127404494753902</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0438990974874676</v>
+        <v>0.0814517260294528</v>
       </c>
       <c r="D7" t="n">
-        <v>0.174642055582569</v>
+        <v>0.173357263478352</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00514734647787538</v>
+        <v>-0.013775845076772</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0455980432034343</v>
+        <v>-0.049447436432024</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0558927361591851</v>
+        <v>0.0218957462784801</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -541,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0859098845307255</v>
+        <v>0.0696097657082824</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0139046217973739</v>
+        <v>0.0181698765551405</v>
       </c>
       <c r="D9" t="n">
-        <v>0.157915147264077</v>
+        <v>0.121049654861424</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00119832579274969</v>
+        <v>0.0134200841437081</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0787656735741821</v>
+        <v>-0.0436105862232413</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0811623251596815</v>
+        <v>0.0704507545106574</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -575,13 +575,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0920069137172966</v>
+        <v>0.163506162024661</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0853082949672431</v>
+        <v>0.0421521876029341</v>
       </c>
       <c r="D11" t="n">
-        <v>0.269322122401836</v>
+        <v>0.284860136446389</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0779617918200387</v>
+        <v>-0.0745597824524039</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.186747078861208</v>
+        <v>-0.152344171965274</v>
       </c>
       <c r="D12" t="n">
-        <v>0.030823495221131</v>
+        <v>0.00322460706046569</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0752818805391475</v>
+        <v>0.0440008700361149</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0806535101497494</v>
+        <v>-0.0654852114088253</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231217271228044</v>
+        <v>0.153486951481055</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -626,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0540511173859778</v>
+        <v>0.0569667855655541</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0209004811205222</v>
+        <v>0.0043499471183831</v>
       </c>
       <c r="D14" t="n">
-        <v>0.129002715892478</v>
+        <v>0.109583624012725</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -643,13 +643,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0638600665964082</v>
+        <v>0.0659471240980055</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0593544128139526</v>
+        <v>-0.0205202468085454</v>
       </c>
       <c r="D15" t="n">
-        <v>0.187074546006769</v>
+        <v>0.152414495004556</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -660,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0582530786071243</v>
+        <v>0.0420427490991274</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0481889401224782</v>
+        <v>-0.0317445842584462</v>
       </c>
       <c r="D16" t="n">
-        <v>0.164695097336727</v>
+        <v>0.115830082456701</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -677,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0426152967576268</v>
+        <v>0.106517429484949</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.171921831118229</v>
+        <v>-0.0495186348481971</v>
       </c>
       <c r="D17" t="n">
-        <v>0.257152424633483</v>
+        <v>0.262553493818095</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -694,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0109083790390346</v>
+        <v>0.0443478060551183</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.078808524563807</v>
+        <v>-0.0180789410262672</v>
       </c>
       <c r="D18" t="n">
-        <v>0.100625282641876</v>
+        <v>0.106774553136504</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -711,13 +711,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00609860245898284</v>
+        <v>0.119205559811995</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.139285356437357</v>
+        <v>0.0198291911122213</v>
       </c>
       <c r="D19" t="n">
-        <v>0.151482561355322</v>
+        <v>0.218581928511768</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0898006051746485</v>
+        <v>-0.0562340313072507</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.233758878027255</v>
+        <v>-0.157147797671396</v>
       </c>
       <c r="D20" t="n">
-        <v>0.054157667677958</v>
+        <v>0.0446797350568944</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -745,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>0.111046948442519</v>
+        <v>0.062045527592155</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0831948586180923</v>
+        <v>-0.0683314062825216</v>
       </c>
       <c r="D21" t="n">
-        <v>0.30528875550313</v>
+        <v>0.192422461466832</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -762,13 +762,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0529192867753305</v>
+        <v>0.0498913264863573</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0547675567118714</v>
+        <v>-0.0251966777910511</v>
       </c>
       <c r="D22" t="n">
-        <v>0.160606130262532</v>
+        <v>0.124979330763766</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -779,13 +779,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00869816512241949</v>
+        <v>0.0209032692682396</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.517312113323892</v>
+        <v>-0.308348906013621</v>
       </c>
       <c r="D23" t="n">
-        <v>0.534708443568731</v>
+        <v>0.350155444550101</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -796,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0954627656748743</v>
+        <v>0.0647744067478859</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0372807836342817</v>
+        <v>-0.028118523851499</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22820631498403</v>
+        <v>0.157667337347271</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -813,13 +813,13 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0774999758821375</v>
+        <v>0.023574388008817</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.277800008082333</v>
+        <v>-0.117606251453717</v>
       </c>
       <c r="D25" t="n">
-        <v>0.122800056318058</v>
+        <v>0.164755027471351</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -830,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>0.129460428672861</v>
+        <v>0.0792715060759079</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0297698628802134</v>
+        <v>0.00731821685892103</v>
       </c>
       <c r="D26" t="n">
-        <v>0.229150994465509</v>
+        <v>0.151224795292895</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>0.188047234439953</v>
+        <v>0.183435976797437</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0161028557925034</v>
+        <v>0.0610024212038627</v>
       </c>
       <c r="D27" t="n">
-        <v>0.359991613087402</v>
+        <v>0.305869532391011</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -864,13 +864,13 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>0.115158211259565</v>
+        <v>-0.00249226313924824</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0518585629213282</v>
+        <v>-0.117619845283402</v>
       </c>
       <c r="D28" t="n">
-        <v>0.282174985440459</v>
+        <v>0.112635319004905</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -881,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100729828207841</v>
+        <v>0.0671222011710891</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0769211278804218</v>
+        <v>-0.0672864403136327</v>
       </c>
       <c r="D29" t="n">
-        <v>0.278380784296103</v>
+        <v>0.201530842655811</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0808082726394657</v>
+        <v>0.0461112468869429</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00592646017538637</v>
+        <v>-0.0156013579928429</v>
       </c>
       <c r="D30" t="n">
-        <v>0.167543005454318</v>
+        <v>0.107823851766729</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -915,13 +915,13 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>0.241329570007311</v>
+        <v>0.164292921240961</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0934787729477959</v>
+        <v>0.0575037507652376</v>
       </c>
       <c r="D31" t="n">
-        <v>0.389180367066825</v>
+        <v>0.271082091716685</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -932,13 +932,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0658165587597311</v>
+        <v>-0.0770115323775567</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.19191152306718</v>
+        <v>-0.168476468368703</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0602784055477175</v>
+        <v>0.01445340361359</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -949,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>0.155528501286003</v>
+        <v>0.112378446213999</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0267897816951556</v>
+        <v>-0.0161064521718535</v>
       </c>
       <c r="D33" t="n">
-        <v>0.337846784267162</v>
+        <v>0.240863344599851</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -966,13 +966,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0806919758891738</v>
+        <v>0.0128815133359227</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0405955523514283</v>
+        <v>-0.0670206126625616</v>
       </c>
       <c r="D34" t="n">
-        <v>0.201979504129776</v>
+        <v>0.0927836393344069</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -983,13 +983,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0.157235755013593</v>
+        <v>0.0000835166697397121</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.151870519477175</v>
+        <v>-0.207857944074017</v>
       </c>
       <c r="D35" t="n">
-        <v>0.466342029504362</v>
+        <v>0.208024977413496</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1000,13 +1000,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00248998126731782</v>
+        <v>-0.0564745040254747</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.173159997245425</v>
+        <v>-0.164686302960322</v>
       </c>
       <c r="D36" t="n">
-        <v>0.178139959780061</v>
+        <v>0.051737294909373</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1017,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.138708738741512</v>
+        <v>0.10753578576963</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0614872652577756</v>
+        <v>-0.0301527456761456</v>
       </c>
       <c r="D37" t="n">
-        <v>0.338904742740799</v>
+        <v>0.245224317215405</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>0.040516322743288</v>
+        <v>0.0329219968308334</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0119826936379433</v>
+        <v>-0.00418087914622495</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0930153391245193</v>
+        <v>0.0700248728078917</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1051,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10182018525363</v>
+        <v>0.0996988622827386</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.00897770215983545</v>
+        <v>0.0212202569790497</v>
       </c>
       <c r="D39" t="n">
-        <v>0.212618072667095</v>
+        <v>0.178177467586427</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1068,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0234328054072882</v>
+        <v>0.00946757863996056</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0504095655493409</v>
+        <v>-0.0432515002692828</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0972751763639172</v>
+        <v>0.0621866575492039</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00810286008267679</v>
+        <v>0.0152223762772778</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0943018160901481</v>
+        <v>-0.0545596034709766</v>
       </c>
       <c r="D41" t="n">
-        <v>0.110507536255502</v>
+        <v>0.0850043560255322</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>0.036707291653055</v>
+        <v>0.0438882524798859</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.00601192427354733</v>
+        <v>0.0136493681285979</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0794265075796573</v>
+        <v>0.0741271368311739</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1119,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134741249909826</v>
+        <v>0.12925627370115</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0697096041630702</v>
+        <v>0.0828471037044912</v>
       </c>
       <c r="D43" t="n">
-        <v>0.199772895656582</v>
+        <v>0.175665443697809</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1136,13 +1136,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0601736040042497</v>
+        <v>-0.0306051407186632</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.13031189364479</v>
+        <v>-0.0805503254249473</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00996468563629058</v>
+        <v>0.0193400439876209</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1153,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0043865817245284</v>
+        <v>0.000588286260002287</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0894627526901494</v>
+        <v>-0.0636738750263734</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0982359161392062</v>
+        <v>0.0648504475463779</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0427825289134036</v>
+        <v>0.0427825289134035</v>
       </c>
       <c r="C2" t="n">
         <v>0.0254219008151137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0601431570116935</v>
+        <v>0.0601431570116933</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124100230900714</v>
+        <v>0.124100230900713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0935049379838842</v>
+        <v>0.0935049379838836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.154695523817544</v>
+        <v>0.154695523817543</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -459,10 +459,10 @@
         <v>-0.0157457424318671</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0416081557518602</v>
+        <v>-0.0416081557518604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.010116670888126</v>
+        <v>0.0101166708881262</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0325071121053562</v>
+        <v>0.0325071121053564</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00293841770571488</v>
+        <v>-0.00293841770571474</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0679526419164273</v>
+        <v>0.0679526419164274</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -490,10 +490,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0465731370810223</v>
+        <v>0.0465731370810225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0217576360884495</v>
+        <v>0.02175763608845</v>
       </c>
       <c r="D6" t="n">
         <v>0.0713886380735951</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127404494753902</v>
+        <v>0.127404494753903</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0814517260294528</v>
+        <v>0.0814517260294534</v>
       </c>
       <c r="D7" t="n">
-        <v>0.173357263478352</v>
+        <v>0.173357263478353</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.013775845076772</v>
+        <v>-0.0137758450767719</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.049447436432024</v>
+        <v>-0.0494474364320239</v>
       </c>
       <c r="D8" t="n">
         <v>0.0218957462784801</v>
@@ -541,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0696097657082824</v>
+        <v>0.0696097657082822</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0181698765551405</v>
+        <v>0.0181698765551404</v>
       </c>
       <c r="D9" t="n">
         <v>0.121049654861424</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0134200841437081</v>
+        <v>0.0134200841437082</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0436105862232413</v>
+        <v>-0.0436105862232412</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0704507545106574</v>
+        <v>0.0704507545106577</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -575,10 +575,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.163506162024661</v>
+        <v>0.163506162024662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0421521876029341</v>
+        <v>0.0421521876029342</v>
       </c>
       <c r="D11" t="n">
         <v>0.284860136446389</v>
@@ -592,13 +592,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0745597824524039</v>
+        <v>-0.0745597824524038</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.152344171965274</v>
+        <v>-0.152344171965273</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00322460706046569</v>
+        <v>0.00322460706046583</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -612,7 +612,7 @@
         <v>0.0440008700361149</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0654852114088253</v>
+        <v>-0.0654852114088251</v>
       </c>
       <c r="D13" t="n">
         <v>0.153486951481055</v>
@@ -626,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0569667855655541</v>
+        <v>0.0569667855655538</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0043499471183831</v>
+        <v>0.0043499471183828</v>
       </c>
       <c r="D14" t="n">
         <v>0.109583624012725</v>
@@ -643,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0659471240980055</v>
+        <v>0.0659471240980054</v>
       </c>
       <c r="C15" t="n">
         <v>-0.0205202468085454</v>
@@ -660,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0420427490991274</v>
+        <v>0.0420427490991278</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0317445842584462</v>
+        <v>-0.0317445842584461</v>
       </c>
       <c r="D16" t="n">
-        <v>0.115830082456701</v>
+        <v>0.115830082456702</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -680,7 +680,7 @@
         <v>0.106517429484949</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0495186348481971</v>
+        <v>-0.0495186348481969</v>
       </c>
       <c r="D17" t="n">
         <v>0.262553493818095</v>
@@ -694,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0443478060551183</v>
+        <v>0.0443478060551181</v>
       </c>
       <c r="C18" t="n">
         <v>-0.0180789410262672</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0562340313072507</v>
+        <v>-0.0562340313072509</v>
       </c>
       <c r="C20" t="n">
         <v>-0.157147797671396</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0446797350568944</v>
+        <v>0.0446797350568946</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -748,7 +748,7 @@
         <v>0.062045527592155</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0683314062825216</v>
+        <v>-0.0683314062825215</v>
       </c>
       <c r="D21" t="n">
         <v>0.192422461466832</v>
@@ -765,7 +765,7 @@
         <v>0.0498913264863573</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0251966777910511</v>
+        <v>-0.0251966777910512</v>
       </c>
       <c r="D22" t="n">
         <v>0.124979330763766</v>
@@ -779,10 +779,10 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0209032692682396</v>
+        <v>0.0209032692682397</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.308348906013621</v>
+        <v>-0.308348906013622</v>
       </c>
       <c r="D23" t="n">
         <v>0.350155444550101</v>
@@ -796,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0647744067478859</v>
+        <v>0.0647744067478854</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.028118523851499</v>
+        <v>-0.0281185238514995</v>
       </c>
       <c r="D24" t="n">
-        <v>0.157667337347271</v>
+        <v>0.15766733734727</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -830,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0792715060759079</v>
+        <v>0.0792715060759076</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00731821685892103</v>
+        <v>0.00731821685892094</v>
       </c>
       <c r="D26" t="n">
-        <v>0.151224795292895</v>
+        <v>0.151224795292894</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -853,7 +853,7 @@
         <v>0.0610024212038627</v>
       </c>
       <c r="D27" t="n">
-        <v>0.305869532391011</v>
+        <v>0.30586953239101</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.00249226313924824</v>
+        <v>-0.00249226313924843</v>
       </c>
       <c r="C28" t="n">
         <v>-0.117619845283402</v>
@@ -881,10 +881,10 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0671222011710891</v>
+        <v>0.067122201171089</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0672864403136327</v>
+        <v>-0.0672864403136328</v>
       </c>
       <c r="D29" t="n">
         <v>0.201530842655811</v>
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0461112468869429</v>
+        <v>0.0461112468869427</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0156013579928429</v>
+        <v>-0.0156013579928428</v>
       </c>
       <c r="D30" t="n">
-        <v>0.107823851766729</v>
+        <v>0.107823851766728</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -918,10 +918,10 @@
         <v>0.164292921240961</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0575037507652376</v>
+        <v>0.0575037507652378</v>
       </c>
       <c r="D31" t="n">
-        <v>0.271082091716685</v>
+        <v>0.271082091716684</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -932,13 +932,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0770115323775567</v>
+        <v>-0.0770115323775566</v>
       </c>
       <c r="C32" t="n">
         <v>-0.168476468368703</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01445340361359</v>
+        <v>0.0144534036135901</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -952,7 +952,7 @@
         <v>0.112378446213999</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0161064521718535</v>
+        <v>-0.0161064521718534</v>
       </c>
       <c r="D33" t="n">
         <v>0.240863344599851</v>
@@ -966,13 +966,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0128815133359227</v>
+        <v>0.0128815133359226</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0670206126625616</v>
+        <v>-0.0670206126625617</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0927836393344069</v>
+        <v>0.0927836393344068</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -983,7 +983,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0000835166697397121</v>
+        <v>0.0000835166697394892</v>
       </c>
       <c r="C35" t="n">
         <v>-0.207857944074017</v>
@@ -1000,13 +1000,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0564745040254747</v>
+        <v>-0.0564745040254746</v>
       </c>
       <c r="C36" t="n">
         <v>-0.164686302960322</v>
       </c>
       <c r="D36" t="n">
-        <v>0.051737294909373</v>
+        <v>0.0517372949093731</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1020,10 +1020,10 @@
         <v>0.10753578576963</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0301527456761456</v>
+        <v>-0.0301527456761455</v>
       </c>
       <c r="D37" t="n">
-        <v>0.245224317215405</v>
+        <v>0.245224317215406</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0329219968308334</v>
+        <v>0.0329219968308335</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00418087914622495</v>
+        <v>-0.00418087914622511</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0700248728078917</v>
+        <v>0.0700248728078922</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1051,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0996988622827386</v>
+        <v>0.0996988622827387</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0212202569790497</v>
+        <v>0.0212202569790498</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178177467586427</v>
+        <v>0.178177467586428</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1068,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00946757863996056</v>
+        <v>0.00946757863996073</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0432515002692828</v>
+        <v>-0.0432515002692827</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0621866575492039</v>
+        <v>0.0621866575492041</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1088,7 +1088,7 @@
         <v>0.0152223762772778</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0545596034709766</v>
+        <v>-0.0545596034709765</v>
       </c>
       <c r="D41" t="n">
         <v>0.0850043560255322</v>
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0438882524798859</v>
+        <v>0.0438882524798862</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0136493681285979</v>
+        <v>0.0136493681285983</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0741271368311739</v>
+        <v>0.0741271368311741</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1122,7 +1122,7 @@
         <v>0.12925627370115</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0828471037044912</v>
+        <v>0.0828471037044906</v>
       </c>
       <c r="D43" t="n">
         <v>0.175665443697809</v>
@@ -1136,13 +1136,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0306051407186632</v>
+        <v>-0.0306051407186631</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0805503254249473</v>
+        <v>-0.0805503254249471</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0193400439876209</v>
+        <v>0.019340043987621</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1153,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>0.000588286260002287</v>
+        <v>0.000588286260002173</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0636738750263734</v>
+        <v>-0.0636738750263735</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0648504475463779</v>
+        <v>0.0648504475463778</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0427825289134035</v>
+        <v>0.0429610587287474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0254219008151137</v>
+        <v>0.0255852150655959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0601431570116933</v>
+        <v>0.0603369023918989</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124100230900713</v>
+        <v>0.124366392153206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0935049379838836</v>
+        <v>0.0937415011398707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.154695523817543</v>
+        <v>0.154991283166542</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0157457424318671</v>
+        <v>-0.0156255326094113</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0416081557518604</v>
+        <v>-0.0415031071824791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0101166708881262</v>
+        <v>0.0102520419636565</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0325071121053564</v>
+        <v>0.0325496437481717</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00293841770571474</v>
+        <v>-0.00292831359049425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0679526419164274</v>
+        <v>0.0680276010868376</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -490,13 +490,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0465731370810225</v>
+        <v>0.0465731370810222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02175763608845</v>
+        <v>0.0217576360884495</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0713886380735951</v>
+        <v>0.0713886380735949</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -510,7 +510,7 @@
         <v>0.127404494753903</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0814517260294534</v>
+        <v>0.0814517260294537</v>
       </c>
       <c r="D7" t="n">
         <v>0.173357263478353</v>
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0137758450767719</v>
+        <v>-0.0137758450767718</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0494474364320239</v>
+        <v>-0.0494474364320237</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0218957462784801</v>
+        <v>0.02189574627848</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -541,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0696097657082822</v>
+        <v>0.0696097657082823</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0181698765551404</v>
+        <v>0.0181698765551405</v>
       </c>
       <c r="D9" t="n">
         <v>0.121049654861424</v>
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.163506162024662</v>
+        <v>0.163506162024661</v>
       </c>
       <c r="C11" t="n">
         <v>0.0421521876029342</v>
@@ -592,13 +592,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0745597824524038</v>
+        <v>-0.0745597824524039</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.152344171965273</v>
+        <v>-0.152344171965274</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00322460706046583</v>
+        <v>0.00322460706046575</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -609,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0440008700361149</v>
+        <v>0.0440008700361147</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0654852114088251</v>
+        <v>-0.0654852114088252</v>
       </c>
       <c r="D13" t="n">
         <v>0.153486951481055</v>
@@ -626,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0569667855655538</v>
+        <v>0.0569667855655539</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0043499471183828</v>
+        <v>0.00434994711838287</v>
       </c>
       <c r="D14" t="n">
         <v>0.109583624012725</v>
@@ -643,13 +643,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0659471240980054</v>
+        <v>0.0659471240980056</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0205202468085454</v>
+        <v>-0.0205202468085456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.152414495004556</v>
+        <v>0.152414495004557</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -660,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0420427490991278</v>
+        <v>0.0420427490991277</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0317445842584461</v>
@@ -680,7 +680,7 @@
         <v>0.106517429484949</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0495186348481969</v>
+        <v>-0.0495186348481971</v>
       </c>
       <c r="D17" t="n">
         <v>0.262553493818095</v>
@@ -694,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0443478060551181</v>
+        <v>0.044347806055118</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0180789410262672</v>
+        <v>-0.0180789410262675</v>
       </c>
       <c r="D18" t="n">
-        <v>0.106774553136504</v>
+        <v>0.106774553136503</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0562340313072509</v>
+        <v>-0.0562340313072506</v>
       </c>
       <c r="C20" t="n">
         <v>-0.157147797671396</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0446797350568946</v>
+        <v>0.0446797350568945</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -745,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>0.062045527592155</v>
+        <v>0.0620455275921548</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0683314062825215</v>
+        <v>-0.0683314062825217</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192422461466832</v>
+        <v>0.192422461466831</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -762,10 +762,10 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0498913264863573</v>
+        <v>0.0498913264863576</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0251966777910512</v>
+        <v>-0.025196677791051</v>
       </c>
       <c r="D22" t="n">
         <v>0.124979330763766</v>
@@ -779,10 +779,10 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0209032692682397</v>
+        <v>0.0209032692682398</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.308348906013622</v>
+        <v>-0.308348906013621</v>
       </c>
       <c r="D23" t="n">
         <v>0.350155444550101</v>
@@ -796,10 +796,10 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0647744067478854</v>
+        <v>0.0647744067478856</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0281185238514995</v>
+        <v>-0.0281185238514992</v>
       </c>
       <c r="D24" t="n">
         <v>0.15766733734727</v>
@@ -813,13 +813,13 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>0.023574388008817</v>
+        <v>0.0235743880088167</v>
       </c>
       <c r="C25" t="n">
         <v>-0.117606251453717</v>
       </c>
       <c r="D25" t="n">
-        <v>0.164755027471351</v>
+        <v>0.16475502747135</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -830,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0792715060759076</v>
+        <v>0.0792715060759077</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00731821685892094</v>
+        <v>0.00731821685892084</v>
       </c>
       <c r="D26" t="n">
-        <v>0.151224795292894</v>
+        <v>0.151224795292895</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -850,10 +850,10 @@
         <v>0.183435976797437</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0610024212038627</v>
+        <v>0.0610024212038628</v>
       </c>
       <c r="D27" t="n">
-        <v>0.30586953239101</v>
+        <v>0.305869532391011</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.00249226313924843</v>
+        <v>-0.00249226313924816</v>
       </c>
       <c r="C28" t="n">
         <v>-0.117619845283402</v>
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0461112468869427</v>
+        <v>0.0461112468869428</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0156013579928428</v>
+        <v>-0.0156013579928429</v>
       </c>
       <c r="D30" t="n">
-        <v>0.107823851766728</v>
+        <v>0.107823851766729</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -918,7 +918,7 @@
         <v>0.164292921240961</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0575037507652378</v>
+        <v>0.0575037507652377</v>
       </c>
       <c r="D31" t="n">
         <v>0.271082091716684</v>
@@ -932,13 +932,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0770115323775566</v>
+        <v>-0.0770115323775564</v>
       </c>
       <c r="C32" t="n">
         <v>-0.168476468368703</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0144534036135901</v>
+        <v>0.0144534036135902</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -952,7 +952,7 @@
         <v>0.112378446213999</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0161064521718534</v>
+        <v>-0.0161064521718535</v>
       </c>
       <c r="D33" t="n">
         <v>0.240863344599851</v>
@@ -969,10 +969,10 @@
         <v>0.0128815133359226</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0670206126625617</v>
+        <v>-0.0670206126625618</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0927836393344068</v>
+        <v>0.0927836393344069</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -983,7 +983,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0000835166697394892</v>
+        <v>0.0000835166697395464</v>
       </c>
       <c r="C35" t="n">
         <v>-0.207857944074017</v>
@@ -1020,7 +1020,7 @@
         <v>0.10753578576963</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0301527456761455</v>
+        <v>-0.0301527456761453</v>
       </c>
       <c r="D37" t="n">
         <v>0.245224317215406</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0329219968308335</v>
+        <v>0.032877024243997</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00418087914622511</v>
+        <v>-0.00422627990935685</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0700248728078922</v>
+        <v>0.0699803283973508</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1051,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0996988622827387</v>
+        <v>0.0994883706364756</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0212202569790498</v>
+        <v>0.0210113919726373</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178177467586428</v>
+        <v>0.177965349300314</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1068,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00946757863996073</v>
+        <v>0.00951523023480032</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0432515002692827</v>
+        <v>-0.0432046809896802</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0621866575492041</v>
+        <v>0.0622351414592808</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0152223762772778</v>
+        <v>0.0151352460534196</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0545596034709765</v>
+        <v>-0.0546506683391932</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0850043560255322</v>
+        <v>0.0849211604460325</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0438882524798862</v>
+        <v>0.0443679478200813</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0136493681285983</v>
+        <v>0.0140991238729835</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0741271368311741</v>
+        <v>0.0746367717671791</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1119,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>0.12925627370115</v>
+        <v>0.129837751330906</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0828471037044906</v>
+        <v>0.0833750752633189</v>
       </c>
       <c r="D43" t="n">
-        <v>0.175665443697809</v>
+        <v>0.176300427398493</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1136,13 +1136,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0306051407186631</v>
+        <v>-0.030204472056095</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0805503254249471</v>
+        <v>-0.0801845676298053</v>
       </c>
       <c r="D44" t="n">
-        <v>0.019340043987621</v>
+        <v>0.0197756235176153</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1153,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>0.000588286260002173</v>
+        <v>0.000989468184879479</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0636738750263735</v>
+        <v>-0.0633114359624442</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0648504475463778</v>
+        <v>0.0652903723322031</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0429610587287474</v>
+        <v>0.0429610587287471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0255852150655959</v>
+        <v>0.0255852150655958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0603369023918989</v>
+        <v>0.0603369023918985</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -442,7 +442,7 @@
         <v>0.124366392153206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0937415011398707</v>
+        <v>0.0937415011398704</v>
       </c>
       <c r="D3" t="n">
         <v>0.154991283166542</v>
@@ -456,10 +456,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0156255326094113</v>
+        <v>-0.0156255326094116</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0415031071824791</v>
+        <v>-0.0415031071824796</v>
       </c>
       <c r="D4" t="n">
         <v>0.0102520419636565</v>
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0325496437481717</v>
+        <v>0.0325496437481716</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00292831359049425</v>
+        <v>-0.0029283135904942</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0680276010868376</v>
+        <v>0.0680276010868375</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -490,13 +490,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0465731370810222</v>
+        <v>0.0465731370810216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0217576360884495</v>
+        <v>0.0217576360884491</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0713886380735949</v>
+        <v>0.071388638073594</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127404494753903</v>
+        <v>0.127404494753902</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0814517260294537</v>
+        <v>0.0814517260294529</v>
       </c>
       <c r="D7" t="n">
-        <v>0.173357263478353</v>
+        <v>0.173357263478352</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -527,7 +527,7 @@
         <v>-0.0137758450767718</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0494474364320237</v>
+        <v>-0.0494474364320236</v>
       </c>
       <c r="D8" t="n">
         <v>0.02189574627848</v>
@@ -544,7 +544,7 @@
         <v>0.0696097657082823</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0181698765551405</v>
+        <v>0.0181698765551406</v>
       </c>
       <c r="D9" t="n">
         <v>0.121049654861424</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0134200841437082</v>
+        <v>0.013420084143708</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0436105862232412</v>
+        <v>-0.0436105862232414</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0704507545106577</v>
+        <v>0.0704507545106575</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -578,7 +578,7 @@
         <v>0.163506162024661</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0421521876029342</v>
+        <v>0.042152187602934</v>
       </c>
       <c r="D11" t="n">
         <v>0.284860136446389</v>
@@ -595,10 +595,10 @@
         <v>-0.0745597824524039</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.152344171965274</v>
+        <v>-0.152344171965273</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00322460706046575</v>
+        <v>0.00322460706046568</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -612,7 +612,7 @@
         <v>0.0440008700361147</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0654852114088252</v>
+        <v>-0.0654852114088254</v>
       </c>
       <c r="D13" t="n">
         <v>0.153486951481055</v>
@@ -626,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0569667855655539</v>
+        <v>0.0569667855655538</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00434994711838287</v>
+        <v>0.00434994711838309</v>
       </c>
       <c r="D14" t="n">
         <v>0.109583624012725</v>
@@ -643,10 +643,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0659471240980056</v>
+        <v>0.0659471240980055</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0205202468085456</v>
+        <v>-0.0205202468085455</v>
       </c>
       <c r="D15" t="n">
         <v>0.152414495004557</v>
@@ -660,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0420427490991277</v>
+        <v>0.0420427490991278</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0317445842584461</v>
@@ -680,7 +680,7 @@
         <v>0.106517429484949</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0495186348481971</v>
+        <v>-0.049518634848197</v>
       </c>
       <c r="D17" t="n">
         <v>0.262553493818095</v>
@@ -694,10 +694,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0.044347806055118</v>
+        <v>0.0443478060551181</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0180789410262675</v>
+        <v>-0.018078941026267</v>
       </c>
       <c r="D18" t="n">
         <v>0.106774553136503</v>
@@ -717,7 +717,7 @@
         <v>0.0198291911122213</v>
       </c>
       <c r="D19" t="n">
-        <v>0.218581928511768</v>
+        <v>0.218581928511769</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -728,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0562340313072506</v>
+        <v>-0.0562340313072508</v>
       </c>
       <c r="C20" t="n">
         <v>-0.157147797671396</v>
@@ -745,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0620455275921548</v>
+        <v>0.062045527592155</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0683314062825217</v>
+        <v>-0.0683314062825215</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192422461466831</v>
+        <v>0.192422461466832</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -762,10 +762,10 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0498913264863576</v>
+        <v>0.0498913264863574</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.025196677791051</v>
+        <v>-0.0251966777910513</v>
       </c>
       <c r="D22" t="n">
         <v>0.124979330763766</v>
@@ -799,7 +799,7 @@
         <v>0.0647744067478856</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0281185238514992</v>
+        <v>-0.0281185238514991</v>
       </c>
       <c r="D24" t="n">
         <v>0.15766733734727</v>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0235743880088167</v>
+        <v>0.0235743880088169</v>
       </c>
       <c r="C25" t="n">
         <v>-0.117606251453717</v>
@@ -833,10 +833,10 @@
         <v>0.0792715060759077</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00731821685892084</v>
+        <v>0.00731821685892095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.151224795292895</v>
+        <v>0.151224795292894</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -850,10 +850,10 @@
         <v>0.183435976797437</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0610024212038628</v>
+        <v>0.0610024212038626</v>
       </c>
       <c r="D27" t="n">
-        <v>0.305869532391011</v>
+        <v>0.30586953239101</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.00249226313924816</v>
+        <v>-0.00249226313924833</v>
       </c>
       <c r="C28" t="n">
         <v>-0.117619845283402</v>
@@ -881,10 +881,10 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>0.067122201171089</v>
+        <v>0.0671222011710891</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0672864403136328</v>
+        <v>-0.0672864403136326</v>
       </c>
       <c r="D29" t="n">
         <v>0.201530842655811</v>
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0461112468869428</v>
+        <v>0.0461112468869427</v>
       </c>
       <c r="C30" t="n">
         <v>-0.0156013579928429</v>
       </c>
       <c r="D30" t="n">
-        <v>0.107823851766729</v>
+        <v>0.107823851766728</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -918,7 +918,7 @@
         <v>0.164292921240961</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0575037507652377</v>
+        <v>0.0575037507652376</v>
       </c>
       <c r="D31" t="n">
         <v>0.271082091716684</v>
@@ -938,7 +938,7 @@
         <v>-0.168476468368703</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0144534036135902</v>
+        <v>0.0144534036135903</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -952,7 +952,7 @@
         <v>0.112378446213999</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0161064521718535</v>
+        <v>-0.0161064521718534</v>
       </c>
       <c r="D33" t="n">
         <v>0.240863344599851</v>
@@ -966,13 +966,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0128815133359226</v>
+        <v>0.0128815133359225</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0670206126625618</v>
+        <v>-0.0670206126625617</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0927836393344069</v>
+        <v>0.0927836393344068</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -983,7 +983,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0000835166697395464</v>
+        <v>0.0000835166697395027</v>
       </c>
       <c r="C35" t="n">
         <v>-0.207857944074017</v>
@@ -1000,13 +1000,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0564745040254746</v>
+        <v>-0.0564745040254747</v>
       </c>
       <c r="C36" t="n">
         <v>-0.164686302960322</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0517372949093731</v>
+        <v>0.051737294909373</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1020,7 +1020,7 @@
         <v>0.10753578576963</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0301527456761453</v>
+        <v>-0.0301527456761454</v>
       </c>
       <c r="D37" t="n">
         <v>0.245224317215406</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>0.032877024243997</v>
+        <v>0.0328770242439968</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00422627990935685</v>
+        <v>-0.00422627990935694</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0699803283973508</v>
+        <v>0.0699803283973505</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1051,10 +1051,10 @@
         <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0994883706364756</v>
+        <v>0.099488370636476</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0210113919726373</v>
+        <v>0.0210113919726375</v>
       </c>
       <c r="D39" t="n">
         <v>0.177965349300314</v>
@@ -1068,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00951523023480032</v>
+        <v>0.0095152302348003</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0432046809896802</v>
+        <v>-0.0432046809896804</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0622351414592808</v>
+        <v>0.062235141459281</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0151352460534196</v>
+        <v>0.0151352460534197</v>
       </c>
       <c r="C41" t="n">
         <v>-0.0546506683391932</v>
@@ -1105,10 +1105,10 @@
         <v>0.0443679478200813</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0140991238729835</v>
+        <v>0.0140991238729832</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0746367717671791</v>
+        <v>0.0746367717671793</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1119,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>0.129837751330906</v>
+        <v>0.129837751330908</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0833750752633189</v>
+        <v>0.0833750752633204</v>
       </c>
       <c r="D43" t="n">
-        <v>0.176300427398493</v>
+        <v>0.176300427398495</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1136,13 +1136,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.030204472056095</v>
+        <v>-0.0302044720560949</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0801845676298053</v>
+        <v>-0.0801845676298052</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0197756235176153</v>
+        <v>0.0197756235176154</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1153,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>0.000989468184879479</v>
+        <v>0.000989468184879495</v>
       </c>
       <c r="C45" t="n">
         <v>-0.0633114359624442</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0652903723322031</v>
+        <v>0.0652903723322032</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*All*</t>
   </si>
   <si>
     <t xml:space="preserve">Left</t>
@@ -431,7 +434,7 @@
         <v>0.0603369023918985</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +451,7 @@
         <v>0.154991283166542</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +468,7 @@
         <v>0.0102520419636565</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -482,12 +485,12 @@
         <v>0.0680276010868375</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0465731370810216</v>
@@ -499,12 +502,12 @@
         <v>0.071388638073594</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>0.127404494753902</v>
@@ -516,12 +519,12 @@
         <v>0.173357263478352</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
         <v>-0.0137758450767718</v>
@@ -533,12 +536,12 @@
         <v>0.02189574627848</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>0.0696097657082823</v>
@@ -550,12 +553,12 @@
         <v>0.121049654861424</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>0.013420084143708</v>
@@ -567,12 +570,12 @@
         <v>0.0704507545106575</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>0.163506162024661</v>
@@ -584,12 +587,12 @@
         <v>0.284860136446389</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
         <v>-0.0745597824524039</v>
@@ -601,12 +604,12 @@
         <v>0.00322460706046568</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>0.0440008700361147</v>
@@ -618,12 +621,12 @@
         <v>0.153486951481055</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>0.0569667855655538</v>
@@ -635,12 +638,12 @@
         <v>0.109583624012725</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="n">
         <v>0.0659471240980055</v>
@@ -652,12 +655,12 @@
         <v>0.152414495004557</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="n">
         <v>0.0420427490991278</v>
@@ -669,12 +672,12 @@
         <v>0.115830082456702</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="n">
         <v>0.106517429484949</v>
@@ -686,12 +689,12 @@
         <v>0.262553493818095</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="n">
         <v>0.0443478060551181</v>
@@ -703,12 +706,12 @@
         <v>0.106774553136503</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="n">
         <v>0.119205559811995</v>
@@ -720,12 +723,12 @@
         <v>0.218581928511769</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n">
         <v>-0.0562340313072508</v>
@@ -737,12 +740,12 @@
         <v>0.0446797350568945</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
         <v>0.062045527592155</v>
@@ -754,12 +757,12 @@
         <v>0.192422461466832</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
         <v>0.0498913264863574</v>
@@ -771,12 +774,12 @@
         <v>0.124979330763766</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
         <v>0.0209032692682398</v>
@@ -788,12 +791,12 @@
         <v>0.350155444550101</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
         <v>0.0647744067478856</v>
@@ -805,12 +808,12 @@
         <v>0.15766733734727</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" t="n">
         <v>0.0235743880088169</v>
@@ -822,12 +825,12 @@
         <v>0.16475502747135</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" t="n">
         <v>0.0792715060759077</v>
@@ -839,12 +842,12 @@
         <v>0.151224795292894</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" t="n">
         <v>0.183435976797437</v>
@@ -856,12 +859,12 @@
         <v>0.30586953239101</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" t="n">
         <v>-0.00249226313924833</v>
@@ -873,12 +876,12 @@
         <v>0.112635319004905</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" t="n">
         <v>0.0671222011710891</v>
@@ -890,12 +893,12 @@
         <v>0.201530842655811</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" t="n">
         <v>0.0461112468869427</v>
@@ -907,12 +910,12 @@
         <v>0.107823851766728</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="n">
         <v>0.164292921240961</v>
@@ -924,12 +927,12 @@
         <v>0.271082091716684</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="n">
         <v>-0.0770115323775564</v>
@@ -941,12 +944,12 @@
         <v>0.0144534036135903</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="n">
         <v>0.112378446213999</v>
@@ -958,12 +961,12 @@
         <v>0.240863344599851</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="n">
         <v>0.0128815133359225</v>
@@ -975,12 +978,12 @@
         <v>0.0927836393344068</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="n">
         <v>0.0000835166697395027</v>
@@ -992,12 +995,12 @@
         <v>0.208024977413496</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="n">
         <v>-0.0564745040254747</v>
@@ -1009,12 +1012,12 @@
         <v>0.051737294909373</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
         <v>0.10753578576963</v>
@@ -1026,12 +1029,12 @@
         <v>0.245224317215406</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" t="n">
         <v>0.0328770242439968</v>
@@ -1043,12 +1046,12 @@
         <v>0.0699803283973505</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" t="n">
         <v>0.099488370636476</v>
@@ -1060,12 +1063,12 @@
         <v>0.177965349300314</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
         <v>0.0095152302348003</v>
@@ -1077,12 +1080,12 @@
         <v>0.062235141459281</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
         <v>0.0151352460534197</v>
@@ -1094,12 +1097,12 @@
         <v>0.0849211604460325</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" t="n">
         <v>0.0443679478200813</v>
@@ -1111,12 +1114,12 @@
         <v>0.0746367717671793</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n">
         <v>0.129837751330908</v>
@@ -1128,12 +1131,12 @@
         <v>0.176300427398495</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" t="n">
         <v>-0.0302044720560949</v>
@@ -1145,12 +1148,12 @@
         <v>0.0197756235176154</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" t="n">
         <v>0.000989468184879495</v>
@@ -1162,7 +1165,7 @@
         <v>0.0652903723322032</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*All*</t>
   </si>
   <si>
     <t xml:space="preserve">Left</t>
@@ -434,7 +431,7 @@
         <v>0.0603369023918985</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +448,7 @@
         <v>0.154991283166542</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +465,7 @@
         <v>0.0102520419636565</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -485,12 +482,12 @@
         <v>0.0680276010868375</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>0.0465731370810216</v>
@@ -502,12 +499,12 @@
         <v>0.071388638073594</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
         <v>0.127404494753902</v>
@@ -519,12 +516,12 @@
         <v>0.173357263478352</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
         <v>-0.0137758450767718</v>
@@ -536,12 +533,12 @@
         <v>0.02189574627848</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>0.0696097657082823</v>
@@ -553,12 +550,12 @@
         <v>0.121049654861424</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>0.013420084143708</v>
@@ -570,12 +567,12 @@
         <v>0.0704507545106575</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
         <v>0.163506162024661</v>
@@ -587,12 +584,12 @@
         <v>0.284860136446389</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>-0.0745597824524039</v>
@@ -604,12 +601,12 @@
         <v>0.00322460706046568</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="n">
         <v>0.0440008700361147</v>
@@ -621,12 +618,12 @@
         <v>0.153486951481055</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="n">
         <v>0.0569667855655538</v>
@@ -638,12 +635,12 @@
         <v>0.109583624012725</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="n">
         <v>0.0659471240980055</v>
@@ -655,12 +652,12 @@
         <v>0.152414495004557</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="n">
         <v>0.0420427490991278</v>
@@ -672,12 +669,12 @@
         <v>0.115830082456702</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="n">
         <v>0.106517429484949</v>
@@ -689,12 +686,12 @@
         <v>0.262553493818095</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="n">
         <v>0.0443478060551181</v>
@@ -706,12 +703,12 @@
         <v>0.106774553136503</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="n">
         <v>0.119205559811995</v>
@@ -723,12 +720,12 @@
         <v>0.218581928511769</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
         <v>-0.0562340313072508</v>
@@ -740,12 +737,12 @@
         <v>0.0446797350568945</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
         <v>0.062045527592155</v>
@@ -757,12 +754,12 @@
         <v>0.192422461466832</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
         <v>0.0498913264863574</v>
@@ -774,12 +771,12 @@
         <v>0.124979330763766</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="n">
         <v>0.0209032692682398</v>
@@ -791,12 +788,12 @@
         <v>0.350155444550101</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="n">
         <v>0.0647744067478856</v>
@@ -808,12 +805,12 @@
         <v>0.15766733734727</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
         <v>0.0235743880088169</v>
@@ -825,12 +822,12 @@
         <v>0.16475502747135</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="n">
         <v>0.0792715060759077</v>
@@ -842,12 +839,12 @@
         <v>0.151224795292894</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="n">
         <v>0.183435976797437</v>
@@ -859,12 +856,12 @@
         <v>0.30586953239101</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="n">
         <v>-0.00249226313924833</v>
@@ -876,12 +873,12 @@
         <v>0.112635319004905</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="n">
         <v>0.0671222011710891</v>
@@ -893,12 +890,12 @@
         <v>0.201530842655811</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="n">
         <v>0.0461112468869427</v>
@@ -910,12 +907,12 @@
         <v>0.107823851766728</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="n">
         <v>0.164292921240961</v>
@@ -927,12 +924,12 @@
         <v>0.271082091716684</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
         <v>-0.0770115323775564</v>
@@ -944,12 +941,12 @@
         <v>0.0144534036135903</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
         <v>0.112378446213999</v>
@@ -961,12 +958,12 @@
         <v>0.240863344599851</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="n">
         <v>0.0128815133359225</v>
@@ -978,12 +975,12 @@
         <v>0.0927836393344068</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="n">
         <v>0.0000835166697395027</v>
@@ -995,12 +992,12 @@
         <v>0.208024977413496</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
         <v>-0.0564745040254747</v>
@@ -1012,12 +1009,12 @@
         <v>0.051737294909373</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="n">
         <v>0.10753578576963</v>
@@ -1029,12 +1026,12 @@
         <v>0.245224317215406</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
         <v>0.0328770242439968</v>
@@ -1046,12 +1043,12 @@
         <v>0.0699803283973505</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
         <v>0.099488370636476</v>
@@ -1063,12 +1060,12 @@
         <v>0.177965349300314</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" t="n">
         <v>0.0095152302348003</v>
@@ -1080,12 +1077,12 @@
         <v>0.062235141459281</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" t="n">
         <v>0.0151352460534197</v>
@@ -1097,12 +1094,12 @@
         <v>0.0849211604460325</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n">
         <v>0.0443679478200813</v>
@@ -1114,12 +1111,12 @@
         <v>0.0746367717671793</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" t="n">
         <v>0.129837751330908</v>
@@ -1131,12 +1128,12 @@
         <v>0.176300427398495</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="n">
         <v>-0.0302044720560949</v>
@@ -1148,12 +1145,12 @@
         <v>0.0197756235176154</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n">
         <v>0.000989468184879495</v>
@@ -1165,7 +1162,7 @@
         <v>0.0652903723322032</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0429610587287471</v>
+        <v>0.0505226063280949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0255852150655958</v>
+        <v>0.0305571626541801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0603369023918985</v>
+        <v>0.0704880500020097</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124366392153206</v>
+        <v>0.119650818609338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0937415011398704</v>
+        <v>0.084343371769976</v>
       </c>
       <c r="D3" t="n">
-        <v>0.154991283166542</v>
+        <v>0.154958265448699</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0156255326094116</v>
+        <v>0.00522600015780826</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0415031071824796</v>
+        <v>-0.0245089305286555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0102520419636565</v>
+        <v>0.034960930844272</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0325496437481716</v>
+        <v>0.0331681852459468</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0029283135904942</v>
+        <v>-0.00767074810698398</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0680276010868375</v>
+        <v>0.0740071185988777</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -490,13 +490,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0465731370810216</v>
+        <v>0.0496429176403945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0217576360884491</v>
+        <v>0.0210893633213931</v>
       </c>
       <c r="D6" t="n">
-        <v>0.071388638073594</v>
+        <v>0.078196471959396</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127404494753902</v>
+        <v>0.120844491925758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0814517260294529</v>
+        <v>0.0681006092616919</v>
       </c>
       <c r="D7" t="n">
-        <v>0.173357263478352</v>
+        <v>0.173588374589825</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0137758450767718</v>
+        <v>-0.00281805309262896</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0494474364320236</v>
+        <v>-0.0439859078492079</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02189574627848</v>
+        <v>0.03834980166395</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -541,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0696097657082823</v>
+        <v>0.070331992049516</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0181698765551406</v>
+        <v>0.0111306847375156</v>
       </c>
       <c r="D9" t="n">
-        <v>0.121049654861424</v>
+        <v>0.129533299361516</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.013420084143708</v>
+        <v>0.0377630301667816</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0436105862232414</v>
+        <v>-0.0285067015425054</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0704507545106575</v>
+        <v>0.104032761876069</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -575,13 +575,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.163506162024661</v>
+        <v>0.0821360556541304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.042152187602934</v>
+        <v>-0.060933356343644</v>
       </c>
       <c r="D11" t="n">
-        <v>0.284860136446389</v>
+        <v>0.225205467651905</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0745597824524039</v>
+        <v>-0.00435063605689941</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.152344171965273</v>
+        <v>-0.0941276080197989</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00322460706046568</v>
+        <v>0.0854263359060001</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0440008700361147</v>
+        <v>0.0810663680467016</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0654852114088254</v>
+        <v>-0.0468445199308168</v>
       </c>
       <c r="D13" t="n">
-        <v>0.153486951481055</v>
+        <v>0.20897725602422</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -626,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0569667855655538</v>
+        <v>0.0534519962921757</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00434994711838309</v>
+        <v>-0.00758908356310849</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109583624012725</v>
+        <v>0.11449307614746</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -643,13 +643,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0659471240980055</v>
+        <v>0.0887395849685846</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0205202468085455</v>
+        <v>-0.0101871878507665</v>
       </c>
       <c r="D15" t="n">
-        <v>0.152414495004557</v>
+        <v>0.187666357787936</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -660,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0420427490991278</v>
+        <v>0.00713246302956148</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0317445842584461</v>
+        <v>-0.0796382585572169</v>
       </c>
       <c r="D16" t="n">
-        <v>0.115830082456702</v>
+        <v>0.0939031846163398</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -677,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>0.106517429484949</v>
+        <v>0.1378205934078</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.049518634848197</v>
+        <v>-0.0379365893105114</v>
       </c>
       <c r="D17" t="n">
-        <v>0.262553493818095</v>
+        <v>0.313577776126111</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -694,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0443478060551181</v>
+        <v>0.0667254859993929</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.018078941026267</v>
+        <v>-0.00527018173828245</v>
       </c>
       <c r="D18" t="n">
-        <v>0.106774553136503</v>
+        <v>0.138721153737068</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -711,13 +711,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>0.119205559811995</v>
+        <v>0.118578552011239</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0198291911122213</v>
+        <v>0.00209522144474034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.218581928511769</v>
+        <v>0.235061882577737</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0562340313072508</v>
+        <v>-0.0222771933441894</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.157147797671396</v>
+        <v>-0.138434163786549</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0446797350568945</v>
+        <v>0.0938797770981706</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -745,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>0.062045527592155</v>
+        <v>0.119339731972043</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0683314062825215</v>
+        <v>-0.0294814751631484</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192422461466832</v>
+        <v>0.268160939107235</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -762,13 +762,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0498913264863574</v>
+        <v>0.0460665723463031</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0251966777910513</v>
+        <v>-0.0389047339674024</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124979330763766</v>
+        <v>0.131037878660009</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -779,13 +779,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0209032692682398</v>
+        <v>0.104007172948556</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.308348906013621</v>
+        <v>-0.253702277982841</v>
       </c>
       <c r="D23" t="n">
-        <v>0.350155444550101</v>
+        <v>0.461716623879953</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -796,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0647744067478856</v>
+        <v>0.0581659847077361</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0281185238514991</v>
+        <v>-0.0473210985975509</v>
       </c>
       <c r="D24" t="n">
-        <v>0.15766733734727</v>
+        <v>0.163653068013023</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -813,13 +813,13 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0235743880088169</v>
+        <v>0.0194205296615442</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.117606251453717</v>
+        <v>-0.138308370169828</v>
       </c>
       <c r="D25" t="n">
-        <v>0.16475502747135</v>
+        <v>0.177149429492917</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -830,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0792715060759077</v>
+        <v>0.0850988038100826</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00731821685892095</v>
+        <v>0.00344327531969557</v>
       </c>
       <c r="D26" t="n">
-        <v>0.151224795292894</v>
+        <v>0.16675433230047</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>0.183435976797437</v>
+        <v>0.153162736984905</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0610024212038626</v>
+        <v>0.0114677418769673</v>
       </c>
       <c r="D27" t="n">
-        <v>0.30586953239101</v>
+        <v>0.294857732092843</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -864,13 +864,13 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.00249226313924833</v>
+        <v>0.0464431604394147</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.117619845283402</v>
+        <v>-0.0838971110142932</v>
       </c>
       <c r="D28" t="n">
-        <v>0.112635319004905</v>
+        <v>0.176783431893123</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -881,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0671222011710891</v>
+        <v>0.0603048469457251</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0672864403136326</v>
+        <v>-0.0910656973220108</v>
       </c>
       <c r="D29" t="n">
-        <v>0.201530842655811</v>
+        <v>0.211675391213461</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0461112468869427</v>
+        <v>0.0359379481173602</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0156013579928429</v>
+        <v>-0.0348042208316243</v>
       </c>
       <c r="D30" t="n">
-        <v>0.107823851766728</v>
+        <v>0.106680117066345</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -915,13 +915,13 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>0.164292921240961</v>
+        <v>0.174203777368183</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0575037507652376</v>
+        <v>0.054418843555735</v>
       </c>
       <c r="D31" t="n">
-        <v>0.271082091716684</v>
+        <v>0.293988711180631</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -932,13 +932,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0770115323775564</v>
+        <v>-0.0831320153691031</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.168476468368703</v>
+        <v>-0.188982368372845</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0144534036135903</v>
+        <v>0.0227183376346392</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -949,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>0.112378446213999</v>
+        <v>0.0576325610067519</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0161064521718534</v>
+        <v>-0.0950219740660259</v>
       </c>
       <c r="D33" t="n">
-        <v>0.240863344599851</v>
+        <v>0.21028709607953</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -966,13 +966,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0128815133359225</v>
+        <v>-0.0489195493091343</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0670206126625617</v>
+        <v>-0.14178199899326</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0927836393344068</v>
+        <v>0.0439429003749912</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -983,13 +983,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0000835166697395027</v>
+        <v>-0.00835665886750197</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.207857944074017</v>
+        <v>-0.24547508126199</v>
       </c>
       <c r="D35" t="n">
-        <v>0.208024977413496</v>
+        <v>0.228761763526986</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1000,13 +1000,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0564745040254747</v>
+        <v>-0.113590128378164</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.164686302960322</v>
+        <v>-0.245680019624555</v>
       </c>
       <c r="D36" t="n">
-        <v>0.051737294909373</v>
+        <v>0.0184997628682263</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1017,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.10753578576963</v>
+        <v>0.0233062201292456</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0301527456761454</v>
+        <v>-0.132370666461037</v>
       </c>
       <c r="D37" t="n">
-        <v>0.245224317215406</v>
+        <v>0.178983106719528</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0328770242439968</v>
+        <v>0.0516888230035165</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00422627990935694</v>
+        <v>0.00921978706089092</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0699803283973505</v>
+        <v>0.0941578589461421</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1051,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>0.099488370636476</v>
+        <v>0.122711415531824</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0210113919726375</v>
+        <v>0.0318163820036203</v>
       </c>
       <c r="D39" t="n">
-        <v>0.177965349300314</v>
+        <v>0.213606449060028</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1068,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0095152302348003</v>
+        <v>0.0444550893624335</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0432046809896804</v>
+        <v>-0.0157406205833441</v>
       </c>
       <c r="D40" t="n">
-        <v>0.062235141459281</v>
+        <v>0.104650799308211</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0151352460534197</v>
+        <v>0.00525089394170273</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0546506683391932</v>
+        <v>-0.074377257897329</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0849211604460325</v>
+        <v>0.0848790457807344</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0443679478200813</v>
+        <v>0.0521520781892191</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0140991238729832</v>
+        <v>0.0173558131504642</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0746367717671793</v>
+        <v>0.086948343227974</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1119,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>0.129837751330908</v>
+        <v>0.120710565980352</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0833750752633204</v>
+        <v>0.0670164175771375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.176300427398495</v>
+        <v>0.174404714383566</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1136,13 +1136,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0302044720560949</v>
+        <v>-0.00290348330352482</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0801845676298052</v>
+        <v>-0.0600653190368987</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0197756235176154</v>
+        <v>0.054258352429849</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1153,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>0.000989468184879495</v>
+        <v>0.00695670540431234</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0633114359624442</v>
+        <v>-0.067607564138416</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0652903723322032</v>
+        <v>0.0815209749470407</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
